--- a/excel/Semi-implicit_Euler.xlsx
+++ b/excel/Semi-implicit_Euler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C5735-959A-4182-8FEC-76A1896CD77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73197E38-E3DA-4539-91D9-85E000F95FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="1305" windowWidth="18285" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="1650" windowWidth="18285" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,13 +347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AP22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:42" dyDescent="0.2">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0.61527703328421768</v>
       </c>
     </row>
-    <row r="3" spans="2:42" dyDescent="0.2">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>-3.50395320944536E-11</v>
       </c>
     </row>
-    <row r="4" spans="2:42" dyDescent="0.2">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0.58809131517869884</v>
       </c>
     </row>
-    <row r="5" spans="2:42" dyDescent="0.2">
+    <row r="5" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0.60552614735389565</v>
       </c>
     </row>
-    <row r="6" spans="2:42" dyDescent="0.2">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.6059090739891364</v>
       </c>
     </row>
-    <row r="7" spans="2:42" dyDescent="0.2">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0.58763112082456492</v>
       </c>
     </row>
-    <row r="8" spans="2:42" dyDescent="0.2">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.60984932682575788</v>
       </c>
     </row>
-    <row r="9" spans="2:42" dyDescent="0.2">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0.60509524813954418</v>
       </c>
     </row>
-    <row r="10" spans="2:42" dyDescent="0.2">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.58521096172899767</v>
       </c>
     </row>
-    <row r="11" spans="2:42" dyDescent="0.2">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0.60888987049426491</v>
       </c>
     </row>
-    <row r="12" spans="2:42" dyDescent="0.2">
+    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.60733241795830306</v>
       </c>
     </row>
-    <row r="13" spans="2:42" dyDescent="0.2">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.59704893703569772</v>
       </c>
     </row>
-    <row r="14" spans="2:42" dyDescent="0.2">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.58191311287164083</v>
       </c>
     </row>
-    <row r="15" spans="2:42" dyDescent="0.2">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0.6196844607851536</v>
       </c>
     </row>
-    <row r="16" spans="2:42" dyDescent="0.2">
+    <row r="16" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.60308515142739494</v>
       </c>
     </row>
-    <row r="17" spans="2:42" dyDescent="0.2">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.60967557517682791</v>
       </c>
     </row>
-    <row r="18" spans="2:42" dyDescent="0.2">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0.55155696280047195</v>
       </c>
     </row>
-    <row r="19" spans="2:42" dyDescent="0.2">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0.55302427621073968</v>
       </c>
     </row>
-    <row r="20" spans="2:42" dyDescent="0.2">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.55107724587158113</v>
       </c>
     </row>
-    <row r="21" spans="2:42" dyDescent="0.2">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0.52102294947540051</v>
       </c>
     </row>
-    <row r="22" spans="2:42" dyDescent="0.2">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2987,178 +2987,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA91397-3A57-47B8-B0E9-77D5AB1AD340}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="C1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="1" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0.1</v>
+      </c>
+      <c r="G1">
+        <v>0.2</v>
+      </c>
+      <c r="H1">
+        <v>0.3</v>
+      </c>
+      <c r="I1">
+        <v>0.4</v>
+      </c>
+      <c r="J1">
+        <v>0.5</v>
+      </c>
+      <c r="K1">
+        <v>0.6</v>
+      </c>
+      <c r="L1">
+        <v>0.7</v>
+      </c>
+      <c r="M1">
+        <v>0.8</v>
+      </c>
+      <c r="N1">
+        <v>0.9</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>1.2</v>
+      </c>
+      <c r="R1">
+        <v>1.3</v>
+      </c>
+      <c r="S1">
+        <v>1.4</v>
+      </c>
+      <c r="T1">
+        <v>1.5</v>
+      </c>
+      <c r="U1">
+        <v>1.6</v>
+      </c>
+      <c r="V1">
+        <v>1.7</v>
+      </c>
+      <c r="W1">
+        <v>1.8</v>
+      </c>
+      <c r="X1">
+        <v>1.9</v>
+      </c>
+      <c r="Y1">
+        <v>2</v>
+      </c>
+      <c r="Z1">
+        <v>2.1</v>
+      </c>
+      <c r="AA1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>2.4</v>
+      </c>
+      <c r="AD1">
+        <v>2.5</v>
+      </c>
+      <c r="AE1">
+        <v>2.6</v>
+      </c>
+      <c r="AF1">
+        <v>2.7</v>
+      </c>
+      <c r="AG1">
+        <v>2.8</v>
+      </c>
+      <c r="AH1">
+        <v>2.9</v>
+      </c>
+      <c r="AI1">
+        <v>3</v>
+      </c>
+      <c r="AJ1">
+        <v>3.1</v>
+      </c>
+      <c r="AK1">
+        <v>3.2</v>
+      </c>
+      <c r="AL1">
+        <v>3.3</v>
+      </c>
+      <c r="AM1">
+        <v>3.4</v>
+      </c>
+      <c r="AN1">
+        <v>3.5</v>
+      </c>
+      <c r="AO1">
+        <v>3.6</v>
+      </c>
+      <c r="AP1">
+        <v>3.7</v>
+      </c>
+      <c r="AQ1">
+        <v>3.8</v>
+      </c>
+      <c r="AR1">
+        <v>3.9</v>
+      </c>
+      <c r="AS1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C4">
-        <v>0.1999999999995976</v>
+        <v>0.19999999999959761</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C5">
-        <v>0.3999999999992566</v>
+        <v>0.39999999999925662</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C6">
-        <v>0.5999999999988115</v>
+        <v>0.59999999999881148</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>0.7999999999982277</v>
+        <v>0.79999999999822768</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C8">
-        <v>0.9999999999976438</v>
+        <v>0.99999999999764377</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C9">
-        <v>1.19999999999706</v>
+        <v>1.1999999999970601</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C10">
-        <v>1.399999999996476</v>
+        <v>1.3999999999964761</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1.599999999995892</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C12">
-        <v>1.799999999995309</v>
+        <v>1.7999999999953089</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>1.999999999994768</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>2.199999999995252</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C15">
-        <v>2.39999999999578</v>
+        <v>2.3999999999957802</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2.599999999996307</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17">
-        <v>2.799999999996835</v>
+        <v>2.7999999999968348</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2.999999999997363</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19">
-        <v>3.19999999999789</v>
+        <v>3.1999999999978899</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20">
-        <v>3.399999999998418</v>
+        <v>3.3999999999984181</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21">
-        <v>3.599999999998945</v>
+        <v>3.5999999999989449</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22">
-        <v>3.799999999999473</v>
+        <v>3.7999999999994731</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
